--- a/outputs/Lib_3_2.xlsx
+++ b/outputs/Lib_3_2.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidade\2º Semestre\Simulação\SO_trabalho\outputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2958256-1688-457B-85F1-F39C5A016DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lib_3_2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>#</t>
   </si>
@@ -71,13 +90,16 @@
   </si>
   <si>
     <t>p12</t>
+  </si>
+  <si>
+    <t>Z-Z*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,11 +136,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -160,7 +190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -192,9 +222,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,6 +274,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -401,14 +467,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,13 +490,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -439,16 +510,20 @@
         <v>19241056.93</v>
       </c>
       <c r="D2">
-        <v>24087455.69779</v>
+        <v>24087455.697790001</v>
       </c>
       <c r="E2">
-        <v>4846398.767790001</v>
+        <v>4846398.7677900009</v>
       </c>
       <c r="F2">
+        <f>(E2/C2)*100</f>
+        <v>25.187799118424003</v>
+      </c>
+      <c r="G2">
         <v>1201799</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -456,19 +531,23 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>18438329.78</v>
+        <v>18438329.780000001</v>
       </c>
       <c r="D3">
-        <v>22387298.57921</v>
+        <v>22387298.579209998</v>
       </c>
       <c r="E3">
-        <v>3948968.799210001</v>
+        <v>3948968.7992100008</v>
       </c>
       <c r="F3">
+        <f t="shared" ref="F3:F13" si="0">(E3/C3)*100</f>
+        <v>21.417171979934079</v>
+      </c>
+      <c r="G3">
         <v>11421364</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -476,19 +555,23 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>17765201.95</v>
+        <v>17765201.949999999</v>
       </c>
       <c r="D4">
-        <v>21691404.40105</v>
+        <v>21691404.401050001</v>
       </c>
       <c r="E4">
-        <v>3926202.451050002</v>
+        <v>3926202.4510500021</v>
       </c>
       <c r="F4">
+        <f t="shared" si="0"/>
+        <v>22.100522482661685</v>
+      </c>
+      <c r="G4">
         <v>19601533</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -499,16 +582,20 @@
         <v>17160612.23</v>
       </c>
       <c r="D5">
-        <v>23480262.55281</v>
+        <v>23480262.552809998</v>
       </c>
       <c r="E5">
-        <v>6319650.322809998</v>
+        <v>6319650.3228099979</v>
       </c>
       <c r="F5">
+        <f t="shared" si="0"/>
+        <v>36.826485198249813</v>
+      </c>
+      <c r="G5">
         <v>1201484</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -522,13 +609,17 @@
         <v>17177245.05751</v>
       </c>
       <c r="E6">
-        <v>3519780.827509999</v>
+        <v>3519780.8275099988</v>
       </c>
       <c r="F6">
+        <f t="shared" si="0"/>
+        <v>25.771847308070882</v>
+      </c>
+      <c r="G6">
         <v>1202338</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -539,16 +630,20 @@
         <v>13362529.34</v>
       </c>
       <c r="D7">
-        <v>16756362.21169</v>
+        <v>16756362.211689999</v>
       </c>
       <c r="E7">
         <v>3393832.871689999</v>
       </c>
       <c r="F7">
+        <f t="shared" si="0"/>
+        <v>25.39813223482134</v>
+      </c>
+      <c r="G7">
         <v>1200937</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -556,19 +651,23 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>13199213.19</v>
+        <v>13199213.189999999</v>
       </c>
       <c r="D8">
         <v>15674260.62204</v>
       </c>
       <c r="E8">
-        <v>2475047.432040002</v>
+        <v>2475047.4320400022</v>
       </c>
       <c r="F8">
+        <f t="shared" si="0"/>
+        <v>18.751477049519512</v>
+      </c>
+      <c r="G8">
         <v>1201948</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -579,16 +678,20 @@
         <v>13083203.74</v>
       </c>
       <c r="D9">
-        <v>16852522.18867</v>
+        <v>16852522.188669998</v>
       </c>
       <c r="E9">
-        <v>3769318.448670002</v>
+        <v>3769318.4486700022</v>
       </c>
       <c r="F9">
+        <f t="shared" si="0"/>
+        <v>28.810362687740287</v>
+      </c>
+      <c r="G9">
         <v>1201222</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -602,13 +705,17 @@
         <v>15086728.21521</v>
       </c>
       <c r="E10">
-        <v>3439317.715210002</v>
+        <v>3439317.7152100019</v>
       </c>
       <c r="F10">
+        <f t="shared" si="0"/>
+        <v>29.528603934840298</v>
+      </c>
+      <c r="G10">
         <v>1202183</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -619,16 +726,20 @@
         <v>11570437.68</v>
       </c>
       <c r="D11">
-        <v>15448792.33617</v>
+        <v>15448792.336169999</v>
       </c>
       <c r="E11">
-        <v>3878354.656170001</v>
+        <v>3878354.6561700008</v>
       </c>
       <c r="F11">
+        <f t="shared" si="0"/>
+        <v>33.519515539795904</v>
+      </c>
+      <c r="G11">
         <v>1201797</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -636,19 +747,23 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>11519169.78</v>
+        <v>11519169.779999999</v>
       </c>
       <c r="D12">
         <v>14464948.03702</v>
       </c>
       <c r="E12">
-        <v>2945778.25702</v>
+        <v>2945778.2570199999</v>
       </c>
       <c r="F12">
+        <f t="shared" si="0"/>
+        <v>25.572834790008624</v>
+      </c>
+      <c r="G12">
         <v>1201594</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -656,15 +771,19 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>11505861.86</v>
+        <v>11505861.859999999</v>
       </c>
       <c r="D13">
-        <v>13807396.59913</v>
+        <v>13807396.599130001</v>
       </c>
       <c r="E13">
-        <v>2301534.73913</v>
+        <v>2301534.7391300001</v>
       </c>
       <c r="F13">
+        <f t="shared" si="0"/>
+        <v>20.003149413180946</v>
+      </c>
+      <c r="G13">
         <v>1201055</v>
       </c>
     </row>
